--- a/modified_files/output.xlsx
+++ b/modified_files/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work\Square\PDF Automater\modified_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58CE5193-3A5D-46C1-B333-2CDBE21A1FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE79CFE9-01C4-42F2-A9C1-6E5AE5398CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{489EC8E5-F2B0-4D62-96BA-77282DF98E55}"/>
   </bookViews>

--- a/modified_files/output.xlsx
+++ b/modified_files/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work\Square\PDF Automater\modified_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE79CFE9-01C4-42F2-A9C1-6E5AE5398CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BEE97D6-AB2A-4CE0-B922-B2A9CBDE7390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{489EC8E5-F2B0-4D62-96BA-77282DF98E55}"/>
   </bookViews>

--- a/modified_files/output.xlsx
+++ b/modified_files/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work\Square\PDF Automater\modified_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BEE97D6-AB2A-4CE0-B922-B2A9CBDE7390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FD47DCB-7DB5-407F-9C2E-56B430A3AB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{489EC8E5-F2B0-4D62-96BA-77282DF98E55}"/>
   </bookViews>

--- a/modified_files/output.xlsx
+++ b/modified_files/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work\Square\PDF Automater\modified_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BEE97D6-AB2A-4CE0-B922-B2A9CBDE7390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB53FF81-5333-4E24-8E76-AAABB398C532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{489EC8E5-F2B0-4D62-96BA-77282DF98E55}"/>
   </bookViews>

--- a/modified_files/output.xlsx
+++ b/modified_files/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work\Square\PDF Automater\modified_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB53FF81-5333-4E24-8E76-AAABB398C532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB183525-50E7-4347-AD24-2414EF13AA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{489EC8E5-F2B0-4D62-96BA-77282DF98E55}"/>
+    <workbookView xWindow="770" yWindow="750" windowWidth="19200" windowHeight="11170" xr2:uid="{489EC8E5-F2B0-4D62-96BA-77282DF98E55}"/>
   </bookViews>
   <sheets>
     <sheet name="IPC" sheetId="2" r:id="rId1"/>
@@ -2754,9 +2754,7 @@
       </c>
       <c r="B10" s="128"/>
       <c r="C10" s="71"/>
-      <c r="D10" s="113">
-        <v>48897559.6417</v>
-      </c>
+      <c r="D10" s="113"/>
       <c r="E10" s="30"/>
       <c r="F10" s="70"/>
       <c r="G10" s="67"/>
@@ -2767,7 +2765,9 @@
       </c>
       <c r="B11" s="130"/>
       <c r="C11" s="69"/>
-      <c r="D11" s="30"/>
+      <c r="D11" s="30">
+        <v>336260</v>
+      </c>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
       <c r="G11" s="67"/>
@@ -2778,7 +2778,9 @@
       </c>
       <c r="B12" s="130"/>
       <c r="C12" s="69"/>
-      <c r="D12" s="30"/>
+      <c r="D12" s="30">
+        <v>149040</v>
+      </c>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
       <c r="G12" s="67"/>
@@ -2790,7 +2792,7 @@
       <c r="B13" s="130"/>
       <c r="C13" s="66"/>
       <c r="D13" s="30">
-        <v>35446.041699999994</v>
+        <v>0</v>
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
@@ -2803,7 +2805,7 @@
       <c r="B14" s="130"/>
       <c r="C14" s="68"/>
       <c r="D14" s="31">
-        <v>9800</v>
+        <v>123610</v>
       </c>
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
@@ -2815,7 +2817,9 @@
       </c>
       <c r="B15" s="130"/>
       <c r="C15" s="68"/>
-      <c r="D15" s="31"/>
+      <c r="D15" s="31">
+        <v>1</v>
+      </c>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
       <c r="G15" s="64"/>
@@ -2828,7 +2832,9 @@
       <c r="C16" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="19">
+        <v>94375</v>
+      </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="64"/>
@@ -2840,8 +2846,7 @@
       <c r="B17" s="137"/>
       <c r="C17" s="63"/>
       <c r="D17" s="62">
-        <f>D16+D15+D14+D13+D12+D11+D10</f>
-        <v>48942805.683399998</v>
+        <v>117025</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="62"/>
@@ -2851,7 +2856,9 @@
       <c r="A18" s="60"/>
       <c r="B18" s="59"/>
       <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
+      <c r="D18" s="59">
+        <v>197190</v>
+      </c>
       <c r="E18" s="59"/>
       <c r="F18" s="59"/>
       <c r="G18" s="108"/>
@@ -2862,7 +2869,9 @@
       </c>
       <c r="B19" s="139"/>
       <c r="C19" s="139"/>
-      <c r="D19" s="57"/>
+      <c r="D19" s="57">
+        <v>1</v>
+      </c>
       <c r="E19" s="58"/>
       <c r="F19" s="57"/>
       <c r="G19" s="92"/>
@@ -2873,7 +2882,9 @@
       </c>
       <c r="B20" s="141"/>
       <c r="C20" s="56"/>
-      <c r="D20" s="30"/>
+      <c r="D20" s="30">
+        <v>43290</v>
+      </c>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
       <c r="G20" s="93">
@@ -2886,7 +2897,9 @@
       </c>
       <c r="B21" s="143"/>
       <c r="C21" s="55"/>
-      <c r="D21" s="30"/>
+      <c r="D21" s="30">
+        <v>53025</v>
+      </c>
       <c r="E21" s="54"/>
       <c r="F21" s="54"/>
       <c r="G21" s="94">
@@ -2899,7 +2912,9 @@
       </c>
       <c r="B22" s="130"/>
       <c r="C22" s="86"/>
-      <c r="D22" s="30"/>
+      <c r="D22" s="30">
+        <v>229775</v>
+      </c>
       <c r="E22" s="54"/>
       <c r="F22" s="54"/>
       <c r="G22" s="93">
@@ -2912,7 +2927,9 @@
       </c>
       <c r="B23" s="130"/>
       <c r="C23" s="53"/>
-      <c r="D23" s="30"/>
+      <c r="D23" s="30">
+        <v>183770</v>
+      </c>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
       <c r="G23" s="94">
@@ -2925,7 +2942,9 @@
       </c>
       <c r="B24" s="130"/>
       <c r="C24" s="53"/>
-      <c r="D24" s="30"/>
+      <c r="D24" s="30">
+        <v>56700</v>
+      </c>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
       <c r="G24" s="93">
@@ -2940,7 +2959,9 @@
       <c r="C25" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="30"/>
+      <c r="D25" s="30">
+        <v>18875</v>
+      </c>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
       <c r="G25" s="94">
@@ -2953,7 +2974,9 @@
       </c>
       <c r="B26" s="115"/>
       <c r="C26" s="52"/>
-      <c r="D26" s="51"/>
+      <c r="D26" s="51">
+        <v>43820</v>
+      </c>
       <c r="E26" s="51"/>
       <c r="F26" s="51"/>
       <c r="G26" s="94">
@@ -2966,7 +2989,9 @@
       </c>
       <c r="B27" s="145"/>
       <c r="C27" s="39"/>
-      <c r="D27" s="25"/>
+      <c r="D27" s="25">
+        <v>845600</v>
+      </c>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
       <c r="G27" s="95">
@@ -2979,7 +3004,9 @@
       </c>
       <c r="B28" s="147"/>
       <c r="C28" s="50"/>
-      <c r="D28" s="49"/>
+      <c r="D28" s="49">
+        <v>0</v>
+      </c>
       <c r="E28" s="48"/>
       <c r="F28" s="48"/>
       <c r="G28" s="96">
@@ -2992,7 +3019,9 @@
       </c>
       <c r="B29" s="149"/>
       <c r="C29" s="47"/>
-      <c r="D29" s="46"/>
+      <c r="D29" s="46">
+        <v>0</v>
+      </c>
       <c r="E29" s="45"/>
       <c r="F29" s="45"/>
       <c r="G29" s="97">
@@ -3005,7 +3034,9 @@
       </c>
       <c r="B30" s="153"/>
       <c r="C30" s="44"/>
-      <c r="D30" s="43"/>
+      <c r="D30" s="43">
+        <v>370880</v>
+      </c>
       <c r="E30" s="42"/>
       <c r="F30" s="42"/>
       <c r="G30" s="98">
